--- a/UpDownDesign.xlsx
+++ b/UpDownDesign.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="620" yWindow="920" windowWidth="36620" windowHeight="22820" tabRatio="500"/>
+    <workbookView xWindow="760" yWindow="880" windowWidth="36620" windowHeight="22820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="77">
   <si>
     <t>↗</t>
     <phoneticPr fontId="1"/>
@@ -77,10 +77,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>eye</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>const 1.0</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -94,22 +90,6 @@
   </si>
   <si>
     <t>vol_mov_Evil</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Face_up</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Face_low</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Arm_up</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Arm_low</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -182,10 +162,6 @@
   </si>
   <si>
     <t>↘</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>↗ duration</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -279,11 +255,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>0/
-1time Flash</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Flying</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -362,6 +333,46 @@
   <si>
     <t>Flash slow/
 1time Flash</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Quake_H
+Hand,Hair</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Intro (Quake_L)
+笏、袖、紐</t>
+    <rPh sb="16" eb="17">
+      <t>シャク</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ソデ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ヒモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>↗duration</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Face
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VolumeLight</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Volume</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>↘</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -678,7 +689,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -769,9 +780,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -789,6 +797,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1067,10 +1084,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:R49"/>
+  <dimension ref="B2:R47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
-      <selection activeCell="N29" sqref="N29"/>
+      <selection activeCell="Q28" sqref="Q28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
@@ -1082,7 +1099,7 @@
     <col min="10" max="10" width="16.140625" style="28" customWidth="1"/>
     <col min="11" max="11" width="16.140625" style="21" customWidth="1"/>
     <col min="12" max="12" width="16.140625" style="28" customWidth="1"/>
-    <col min="13" max="13" width="16.140625" style="37" customWidth="1"/>
+    <col min="13" max="13" width="16.140625" style="36" customWidth="1"/>
     <col min="14" max="18" width="16.140625" style="2" customWidth="1"/>
     <col min="19" max="16384" width="12.7109375" style="1"/>
   </cols>
@@ -1095,13 +1112,13 @@
         <v>2</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G2" s="13" t="s">
         <v>3</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="I2" s="16" t="s">
         <v>4</v>
@@ -1110,19 +1127,19 @@
         <v>5</v>
       </c>
       <c r="K2" s="33" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="L2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="35" t="s">
-        <v>60</v>
+      <c r="M2" s="34" t="s">
+        <v>53</v>
       </c>
       <c r="N2" s="12" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="O2" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="P2" s="12" t="s">
         <v>7</v>
@@ -1156,7 +1173,7 @@
       <c r="L3" s="26">
         <v>20</v>
       </c>
-      <c r="M3" s="36">
+      <c r="M3" s="35">
         <v>30</v>
       </c>
       <c r="N3" s="10">
@@ -1181,7 +1198,7 @@
       <c r="J4" s="26"/>
       <c r="K4" s="17"/>
       <c r="L4" s="26"/>
-      <c r="M4" s="36"/>
+      <c r="M4" s="35"/>
       <c r="N4" s="10"/>
       <c r="O4" s="10"/>
       <c r="P4" s="10"/>
@@ -1198,7 +1215,7 @@
       <c r="J5" s="26"/>
       <c r="K5" s="17"/>
       <c r="L5" s="26"/>
-      <c r="M5" s="36"/>
+      <c r="M5" s="35"/>
       <c r="N5" s="10"/>
       <c r="O5" s="10"/>
       <c r="P5" s="10"/>
@@ -1215,7 +1232,7 @@
       <c r="J6" s="26"/>
       <c r="K6" s="17"/>
       <c r="L6" s="26"/>
-      <c r="M6" s="36"/>
+      <c r="M6" s="35"/>
       <c r="N6" s="10"/>
       <c r="O6" s="10"/>
       <c r="P6" s="10"/>
@@ -1232,7 +1249,7 @@
       <c r="J7" s="26"/>
       <c r="K7" s="17"/>
       <c r="L7" s="26"/>
-      <c r="M7" s="36"/>
+      <c r="M7" s="35"/>
       <c r="N7" s="10"/>
       <c r="O7" s="10"/>
       <c r="P7" s="10"/>
@@ -1249,7 +1266,7 @@
       <c r="J8" s="26"/>
       <c r="K8" s="17"/>
       <c r="L8" s="26"/>
-      <c r="M8" s="36"/>
+      <c r="M8" s="35"/>
       <c r="N8" s="10"/>
       <c r="O8" s="10"/>
       <c r="P8" s="10"/>
@@ -1266,7 +1283,7 @@
       <c r="J9" s="26"/>
       <c r="K9" s="17"/>
       <c r="L9" s="26"/>
-      <c r="M9" s="36"/>
+      <c r="M9" s="35"/>
       <c r="N9" s="10"/>
       <c r="O9" s="10"/>
       <c r="P9" s="10"/>
@@ -1274,53 +1291,53 @@
       <c r="R9" s="10"/>
     </row>
     <row r="17" spans="2:18" ht="40" x14ac:dyDescent="0.3">
-      <c r="B17" s="1" t="s">
-        <v>12</v>
+      <c r="B17" s="40" t="s">
+        <v>71</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I17" s="18" t="s">
-        <v>14</v>
+        <v>30</v>
+      </c>
+      <c r="I17" s="20" t="s">
+        <v>31</v>
       </c>
       <c r="J17" s="27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K17" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L17" s="28" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="N17" s="38" t="s">
-        <v>76</v>
+        <v>13</v>
+      </c>
+      <c r="N17" s="37" t="s">
+        <v>69</v>
       </c>
       <c r="O17" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P17" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q17" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.3">
@@ -1328,28 +1345,28 @@
         <v>10</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>0</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="I18" s="19">
         <v>1</v>
       </c>
-      <c r="J18" s="28" t="s">
-        <v>33</v>
+      <c r="J18" s="29">
+        <v>0</v>
       </c>
       <c r="K18" s="21" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="L18" s="29">
         <v>1</v>
@@ -1357,67 +1374,67 @@
       <c r="M18" s="3">
         <v>0</v>
       </c>
-      <c r="N18" s="39">
+      <c r="N18" s="38">
         <v>1</v>
       </c>
       <c r="O18" s="3">
         <v>0</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="2:18" ht="40" x14ac:dyDescent="0.3">
-      <c r="B19" s="1" t="s">
-        <v>17</v>
+      <c r="B19" s="40" t="s">
+        <v>70</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>14</v>
+      <c r="D19" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I19" s="20" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="J19" s="27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K19" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="L19" s="34" t="s">
-        <v>57</v>
+        <v>13</v>
+      </c>
+      <c r="L19" s="28" t="s">
+        <v>25</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="N19" s="38" t="s">
-        <v>76</v>
+        <v>13</v>
+      </c>
+      <c r="N19" s="37" t="s">
+        <v>69</v>
       </c>
       <c r="O19" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P19" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q19" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.3">
@@ -1425,19 +1442,19 @@
         <v>10</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="I20" s="19">
         <v>1</v>
@@ -1446,7 +1463,7 @@
         <v>0</v>
       </c>
       <c r="K20" s="21" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="L20" s="29">
         <v>1</v>
@@ -1454,109 +1471,273 @@
       <c r="M20" s="3">
         <v>0</v>
       </c>
-      <c r="N20" s="39">
+      <c r="N20" s="38">
         <v>1</v>
       </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B21" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18" ht="40" x14ac:dyDescent="0.3">
+      <c r="B21" s="40" t="s">
+        <v>73</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="2" t="s">
-        <v>34</v>
+      <c r="D21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="M21" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="I21" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="J21" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="K21" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="L21" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N21" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="O21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="P21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q21" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="D22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="G22" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="M22" s="2"/>
+        <v>32</v>
+      </c>
+      <c r="I22" s="19">
+        <v>1</v>
+      </c>
+      <c r="J22" s="29">
+        <v>0</v>
+      </c>
+      <c r="K22" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="L22" s="29">
+        <v>1</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="38">
+        <v>1</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G23" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="M23" s="2"/>
+      <c r="D23" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="30"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="15"/>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="D24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="G24" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="M24" s="2"/>
-    </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="I24" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="J24" s="29">
+        <v>0</v>
+      </c>
+      <c r="K24" s="19">
+        <v>1</v>
+      </c>
+      <c r="L24" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="N24" s="38">
+        <v>0</v>
+      </c>
+      <c r="O24" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="P24" s="38">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18" ht="40" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G25" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="M25" s="2"/>
+      <c r="D25" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="30"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="O25" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="P25" s="15"/>
+      <c r="Q25" s="15"/>
+      <c r="R25" s="15"/>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="D26" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="G26" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="M26" s="2"/>
+        <v>32</v>
+      </c>
+      <c r="I26" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="J26" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="K26" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="L26" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N26" s="3">
+        <v>1</v>
+      </c>
+      <c r="O26" s="38">
+        <v>0</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q26" s="2" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E27" s="15"/>
       <c r="F27" s="15"/>
@@ -1567,8 +1748,8 @@
       <c r="K27" s="22"/>
       <c r="L27" s="30"/>
       <c r="M27" s="15"/>
-      <c r="N27" s="15"/>
-      <c r="O27" s="15"/>
+      <c r="N27" s="41"/>
+      <c r="O27" s="42"/>
       <c r="P27" s="15"/>
       <c r="Q27" s="15"/>
       <c r="R27" s="15"/>
@@ -1578,549 +1759,473 @@
         <v>10</v>
       </c>
       <c r="D28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I28" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="J28" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="K28" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="L28" s="29">
+        <v>1</v>
+      </c>
+      <c r="M28" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="N28" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="O28" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="P28" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q28" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G29" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E28" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I28" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="J28" s="29">
+      <c r="H29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I29" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="J29" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="K29" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="L29" s="29">
+        <v>1</v>
+      </c>
+      <c r="M29" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P29" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="K28" s="19">
-        <v>1</v>
-      </c>
-      <c r="L28" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="M28" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="N28" s="39">
-        <v>0</v>
-      </c>
-      <c r="O28" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="P28" s="39">
-        <v>1</v>
-      </c>
-      <c r="Q28" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="2:18" ht="40" x14ac:dyDescent="0.3">
-      <c r="B29" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="30"/>
-      <c r="K29" s="22"/>
-      <c r="L29" s="30"/>
-      <c r="M29" s="15"/>
-      <c r="N29" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="O29" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="P29" s="15"/>
-      <c r="Q29" s="15"/>
-      <c r="R29" s="15"/>
+      <c r="Q29" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D30" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I30" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="J30" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="K30" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="L30" s="28">
         <v>0</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="M30" s="2">
         <v>0</v>
       </c>
-      <c r="F30" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I30" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="J30" s="28" t="s">
+      <c r="N30" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O30" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P30" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q30" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="2:18" s="5" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="31"/>
+      <c r="K31" s="23"/>
+      <c r="L31" s="31"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="6"/>
+      <c r="Q31" s="6"/>
+      <c r="R31" s="6"/>
+    </row>
+    <row r="32" spans="2:18" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="24"/>
+      <c r="J32" s="32"/>
+      <c r="K32" s="24"/>
+      <c r="L32" s="32"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="8"/>
+      <c r="Q32" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="R32" s="8"/>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B33" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="K30" s="21" t="s">
+      <c r="F33" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I33" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="J33" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="K33" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="L33" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O33" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P33" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q33" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B34" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F34" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="L30" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="M30" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N30" s="3">
+      <c r="G34" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I34" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="J34" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="K34" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="L34" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N34" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O34" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P34" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q34" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B35" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I35" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="J35" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="K35" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="L35" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N35" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O35" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P35" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q35" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B36" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J36" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="K36" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="L36" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="M36" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="N36" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="O36" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="P36" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q36" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B37" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J37" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="K37" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="L37" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N37" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O37" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="P37" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q37" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B38" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I38" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="J38" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="K38" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="L38" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O38" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P38" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q38" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B39" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M39" s="2"/>
+      <c r="P39" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q39" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="P42" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q42" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="P43" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q43" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="P44" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q44" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="P45" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q45" s="2">
         <v>1</v>
       </c>
-      <c r="O30" s="39">
-        <v>0</v>
-      </c>
-      <c r="P30" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q30" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B31" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I31" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="J31" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="K31" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="L31" s="29">
-        <v>1</v>
-      </c>
-      <c r="M31" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="N31" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O31" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P31" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="C32" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="I32" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="J32" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="K32" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="L32" s="28">
-        <v>0</v>
-      </c>
-      <c r="M32" s="2">
-        <v>0</v>
-      </c>
-      <c r="N32" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O32" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P32" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q32" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="33" spans="2:18" s="5" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="23"/>
-      <c r="J33" s="31"/>
-      <c r="K33" s="23"/>
-      <c r="L33" s="31"/>
-      <c r="M33" s="6"/>
-      <c r="N33" s="6"/>
-      <c r="O33" s="6"/>
-      <c r="P33" s="6"/>
-      <c r="Q33" s="6"/>
-      <c r="R33" s="6"/>
-    </row>
-    <row r="34" spans="2:18" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="24"/>
-      <c r="J34" s="32"/>
-      <c r="K34" s="24"/>
-      <c r="L34" s="32"/>
-      <c r="M34" s="8"/>
-      <c r="N34" s="8"/>
-      <c r="O34" s="8"/>
-      <c r="P34" s="8"/>
-      <c r="Q34" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="R34" s="8"/>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B35" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I35" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="J35" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="K35" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="L35" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="M35" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N35" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="O35" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="P35" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q35" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="36" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B36" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I36" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="J36" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="K36" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="L36" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="M36" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N36" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="O36" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="P36" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q36" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B37" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I37" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="J37" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="K37" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="L37" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="M37" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N37" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="O37" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="P37" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q37" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B38" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J38" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="K38" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="L38" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="M38" s="4" t="s">
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="P46" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="N38" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="O38" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="P38" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q38" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B39" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J39" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="K39" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="L39" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="M39" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="N39" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="O39" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="P39" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q39" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B40" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I40" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="J40" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="K40" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="L40" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="M40" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="N40" s="2" t="s">
+      <c r="Q46" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="P47" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="O40" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="P40" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q40" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B41" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="M41" s="2"/>
-      <c r="P41" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q41" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="P44" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q44" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="P45" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q45" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="P46" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q46" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="P47" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="Q47" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="P48" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q48" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="49" spans="16:17" x14ac:dyDescent="0.3">
-      <c r="P49" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q49" s="2">
         <v>0.2</v>
       </c>
     </row>

--- a/UpDownDesign.xlsx
+++ b/UpDownDesign.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="77">
   <si>
     <t>↗</t>
     <phoneticPr fontId="1"/>
@@ -1087,7 +1087,7 @@
   <dimension ref="B2:R47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
-      <selection activeCell="Q28" sqref="Q28"/>
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
@@ -1640,8 +1640,8 @@
       <c r="M24" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="N24" s="38">
-        <v>0</v>
+      <c r="N24" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="O24" s="4" t="s">
         <v>52</v>

--- a/UpDownDesign.xlsx
+++ b/UpDownDesign.xlsx
@@ -1087,7 +1087,7 @@
   <dimension ref="B2:R47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
